--- a/data/trans_orig/P14C35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2CD6E0D-981A-42C9-B83D-57331A13F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5266C38-2C45-48BC-A4E4-3259F3FB29E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A0BE22D-9C5B-4BAE-9769-3D7AD0ED8FA0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67FD1677-7218-49B4-B22F-65A83E8BA95C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -113,28 +113,28 @@
     <t>78,46%</t>
   </si>
   <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -143,7 +143,7 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>65,96%</t>
+    <t>68,4%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -152,34 +152,34 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>34,04%</t>
+    <t>31,6%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA4A635-5DEE-4BF5-AA68-E18F8DD0A3C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE44CB-0BDE-418B-B7F7-1617CCE79818}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5266C38-2C45-48BC-A4E4-3259F3FB29E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29E8A5D6-552D-4DF7-9CB1-7E889EC0FAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67FD1677-7218-49B4-B22F-65A83E8BA95C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8813C4D5-6A1F-478A-82DF-0166B373FFF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="49">
   <si>
-    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2015 (Tasa respuesta: 0,93%)</t>
+    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2016 (Tasa respuesta: 0,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -113,19 +113,19 @@
     <t>78,46%</t>
   </si>
   <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>9,26%</t>
@@ -134,7 +134,7 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>25,0%</t>
+    <t>24,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -143,7 +143,7 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>68,4%</t>
+    <t>66,65%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -152,25 +152,25 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>31,6%</t>
+    <t>33,35%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>9,11%</t>
@@ -179,7 +179,7 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>18,56%</t>
+    <t>19,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE44CB-0BDE-418B-B7F7-1617CCE79818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A543391-6C6A-4533-88C6-1D049CC302C4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
